--- a/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_wind_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_wind_offshore.xlsx
@@ -481,22 +481,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01336302895322939</v>
+        <v>0.01547678482276585</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005112910097997444</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01092523045407989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001392757660167131</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02590266875981164</v>
+        <v>0.003231017770597738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0111358574610245</v>
+        <v>0.01647528706939591</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0332339156369834</v>
+        <v>0.004116766467065868</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01114206128133705</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03767660910518055</v>
+        <v>0.008885298869143781</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.007343941248470012</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.02445265851578049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02994943601711399</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007423904974016331</v>
+        <v>0.0144782825761358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04388581167447801</v>
+        <v>0.02357784431137723</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001380262249827467</v>
+        <v>0.05565039262546945</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002785515320334262</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08712715855573011</v>
+        <v>0.002423263327948304</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01957773512476007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2288861689106495</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1595109468296855</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1649163749513818</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001484780994803266</v>
+        <v>0.005491762356465302</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04175543246697909</v>
+        <v>0.06025449101796427</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2443064182194605</v>
+        <v>0.02799590303857972</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001392757660167131</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02668759811616957</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1063339731285983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -629,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006681514476614699</v>
+        <v>0.006490264603095357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009373668512995313</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0102424035506999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001392757660167131</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01020408163265306</v>
+        <v>0.001615508885298869</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.01248127808287569</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.01130856219709209</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.006097560975609756</v>
       </c>
     </row>
     <row r="8">
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03140096618357488</v>
+        <v>0.01101591187270501</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00625</v>
+        <v>0.08984930338356603</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06690003889537133</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04157386785449148</v>
+        <v>0.04493260109835256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3843204090328058</v>
+        <v>0.2889221556886206</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007591442374051072</v>
+        <v>0.3287811539774632</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03594771241830065</v>
+        <v>0.01837270341207349</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03481894150417827</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1601255886970179</v>
+        <v>0.02423263327948305</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1819577735124742</v>
+        <v>0.02134146341463415</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.01647528706939591</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.004846526655896607</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.001524390243902439</v>
       </c>
     </row>
     <row r="10">
@@ -768,34 +768,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06038647342995165</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.025</v>
+        <v>0.003127665624111458</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.03629032258064514</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1417965850037116</v>
+        <v>0.1387918122815784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01065189603749467</v>
+        <v>0.01908682634730538</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0307272106520997</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06535947712418302</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05153203342618384</v>
+        <v>0.005673758865248227</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05494505494505492</v>
+        <v>0.04281098546042001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005758157389635317</v>
+        <v>0.04115853658536587</v>
       </c>
     </row>
     <row r="11">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07004830917874391</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -860,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.03412073490813648</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04735376044568245</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.02180936995153475</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.04115853658536587</v>
       </c>
     </row>
     <row r="13">
@@ -882,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01393232868922379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008556981719175419</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007423904974016332</v>
+        <v>0.000998502246630055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005965061780997019</v>
+        <v>0.01085329341317365</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.002731307613519973</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003139717425431711</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01804222648752398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +916,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2564259485924119</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.04492465169178286</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07117852975495909</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005939123979213066</v>
+        <v>0.008986520219670495</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01022582019599489</v>
+        <v>0.007110778443113775</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2636300897170449</v>
+        <v>0.009559576647319904</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001392757660167131</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01648351648351649</v>
+        <v>0.001615508885298869</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009596928982725525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04231625835189312</v>
+        <v>0.02845731402895657</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01932367149758454</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.03724765425078194</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03617269544924154</v>
+        <v>0.006048387096774193</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03563474387527839</v>
+        <v>0.03544682975536698</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03749467405198124</v>
+        <v>0.03143712574850296</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.03721406623420963</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0130718954248366</v>
+        <v>0.01312335958005249</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02367688022284123</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06279434850863419</v>
+        <v>0.01696284329563813</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03531669865642997</v>
+        <v>0.009146341463414634</v>
       </c>
     </row>
     <row r="17">
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007423904974016332</v>
+        <v>0.000998502246630055</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001278227524499361</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.002048480710139979</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003924646781789639</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004830917874396135</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1082,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.005249343832020997</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004178272980501393</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.001615508885298869</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.003048780487804878</v>
       </c>
     </row>
     <row r="19">
@@ -1101,34 +1101,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.01223990208078335</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.02018765993744669</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02489303772851032</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005939123979213066</v>
+        <v>0.00599101347978033</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02428632296548787</v>
+        <v>0.01085329341317365</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01173222912353348</v>
+        <v>0.01946056674632981</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001392757660167131</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01805337519623235</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="K19" t="n">
-        <v>0.007677543186180423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002969561989606533</v>
+        <v>0.006490264603095357</v>
       </c>
       <c r="F20" t="n">
-        <v>0.009373668512995313</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.009559576647319904</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01177394034536892</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1178,31 +1178,31 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.009667330110889967</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008556981719175419</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002969561989606533</v>
+        <v>0.004493260109835247</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007669365146996167</v>
+        <v>0.007110778443113775</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.006145442130419939</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002785515320334262</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008634222919937207</v>
+        <v>0.001615508885298869</v>
       </c>
       <c r="K21" t="n">
-        <v>0.009596928982725525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.000998502246630055</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.005673758865248227</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.04604200323101774</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.05792682926829271</v>
       </c>
     </row>
     <row r="23">
@@ -1258,25 +1258,25 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03192279138827021</v>
+        <v>0.03145282076884673</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05752023860247112</v>
+        <v>0.004865269461077844</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.06145442130419939</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03481894150417827</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06828885400313972</v>
+        <v>0.02584814216478192</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.003048780487804878</v>
       </c>
     </row>
     <row r="24">
@@ -1286,16 +1286,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00966183574879227</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001484780994803266</v>
+        <v>0.0004992511233150275</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.002624671916010499</v>
       </c>
       <c r="I24" t="n">
-        <v>0.006963788300835654</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.004846526655896607</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.006097560975609756</v>
       </c>
     </row>
     <row r="25">
@@ -1582,34 +1582,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06763285024154585</v>
+        <v>0.08384332925336616</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.03212965595678133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05406456631660821</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1121009651076465</v>
+        <v>0.08637044433350013</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01619088197699189</v>
+        <v>0.01085329341317365</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07108350586611457</v>
+        <v>0.02594742232843974</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02287581699346405</v>
+        <v>0.03674540682414698</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1267409470752092</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.07299843014128732</v>
+        <v>0.08077544426494346</v>
       </c>
       <c r="K32" t="n">
-        <v>0.009596928982725525</v>
+        <v>0.04420731707317075</v>
       </c>
     </row>
     <row r="33">
@@ -1619,34 +1619,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2608695652173918</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00625</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.06653225806451608</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1618411284335556</v>
+        <v>0.1073389915127314</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.002389894161829976</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.141732283464567</v>
       </c>
       <c r="I33" t="n">
-        <v>0.270194986072424</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03846153846153848</v>
+        <v>0.1623586429725368</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.1600609756097562</v>
       </c>
     </row>
     <row r="34">
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.0004992511233150275</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001278227524499361</v>
+        <v>0.0007485029940119761</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.00102424035506999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.002354788069073784</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
